--- a/gameshop/orders.xlsx
+++ b/gameshop/orders.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22.5703125" customWidth="1" min="1" max="1"/>
+    <col width="30.85546875" customWidth="1" min="2" max="2"/>
+    <col width="29.85546875" customWidth="1" min="3" max="3"/>
+    <col width="40.140625" customWidth="1" min="4" max="4"/>
+    <col width="54.7109375" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -472,6 +478,330 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>2025-04-01 09:57:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>👋 Поздороваться</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>👋 Поздороваться</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>👋 Поздороваться</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>👋 Поздороваться</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:41:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>🛒 Заказать</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Привет</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Хочу себе пс 5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Хочу себе пс 5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Хочу себе титана в доте</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Дай буст пж</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Абоба</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Дай обобуса</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>АААААА</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ФФЫВАФЫ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-04-01 12:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Буст в Бобоксе</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>пщпщфрп</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-04-01 13:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>475799956</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>@AndrewBezotchestvo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Еда</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Купи еду</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>291442752</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>@ISvarchikI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>❓ Помощь</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>❓ Помощь</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>864169321</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>@IAmY0urFear</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Шлюха</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ну эээ женщина</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:43:32</t>
         </is>
       </c>
     </row>

--- a/gameshop/orders.xlsx
+++ b/gameshop/orders.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -805,6 +805,141 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>🌤 Погода</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:03:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>БУСТ ДО ТИТАНОВ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>За 5 минут</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-04-11 15:56:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>БУСТА</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ЫФФЫА</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-04-11 16:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>АААААА</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ААААААААА</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-04-11 16:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1425747866</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>@AlexanderPLOV</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>АААААААААА</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ААААААААА</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-04-11 16:38:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
